--- a/medicine/Enfance/Paul_Berna/Paul_Berna.xlsx
+++ b/medicine/Enfance/Paul_Berna/Paul_Berna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Sabran, dit Paul Berna, né le 21 février 1908 à Lyon 5e et mort le 19 janvier 1994 à Neuilly-sur-Seine[1], est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Sabran, dit Paul Berna, né le 21 février 1908 à Lyon 5e et mort le 19 janvier 1994 à Neuilly-sur-Seine, est un écrivain français.
 </t>
         </is>
       </c>
@@ -511,21 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Lyon, Jean Sabran, de son nom complet Edmond-Marie-Jean Sabran, commence ses études à Lyon avant de rejoindre Fribourg et le Collège de la Villa St Jean puis Toulon et Aix-en-Provence pour le baccalauréat. En 1928, il fait son service militaire à Chalons-sur-Marne[2]. 
-Il exerce ensuite différents métiers : comptable, rédacteur, puis assureur[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Lyon, Jean Sabran, de son nom complet Edmond-Marie-Jean Sabran, commence ses études à Lyon avant de rejoindre Fribourg et le Collège de la Villa St Jean puis Toulon et Aix-en-Provence pour le baccalauréat. En 1928, il fait son service militaire à Chalons-sur-Marne. 
+Il exerce ensuite différents métiers : comptable, rédacteur, puis assureur.  
 En 1937, il est convoqué pour une période de réserve et, en 1938, est mobilisé une première puis est à nouveau appelé en 1939. Il part alors avec la IIe Division Nord-Africaine, le 40e R.A.N.A. pour la Moselle et reçoit son baptême du feu sur la Nied à la tête d'une colonne de ravitaillement de chevaux et de voitures. Après un repli sur Coëtquidan puis à l'armistice, sur Angoulême, il est démobilisé et rentre à Paris. De 1939 à 1942 il travaille à Union-Vie, une grande compagnie d'assurances dont il démissionne pour commencer à écrire. 
 Après avoir publié sous son nom différents ouvrages, il entre en 1949 aux éditions G. P. (Générale Publicité) où travaille son frère Guy Sabran, qui y est illustrateur de livres pour la jeunesse, et y écrit des adaptations de classiques pour la jeunesse. 
-À partir de 1954[3], sous le pseudonyme de Paul Berna [4], il écrit ses propres romans pour enfants, publiés aux éditions G. P.. Les deux frères produiront ensemble la série des albums Zoupette, des adaptations de classiques comme Les Contes des mille et une nuits, des albums et romans inédits comme Nous irons à Lunaterra ou La Porte des étoiles. Paul Berna publie également chez Signe de Piste.
+À partir de 1954, sous le pseudonyme de Paul Berna , il écrit ses propres romans pour enfants, publiés aux éditions G. P.. Les deux frères produiront ensemble la série des albums Zoupette, des adaptations de classiques comme Les Contes des mille et une nuits, des albums et romans inédits comme Nous irons à Lunaterra ou La Porte des étoiles. Paul Berna publie également chez Signe de Piste.
 En 1958, il épouse Jany Saint-Marcoux, elle-même auteur de romans pour la jeunesse chez G. P..
 Il écrit également des romans de science-fiction dont les plus connus sont, pour la jeunesse La Porte des étoiles et sa suite Le Continent du ciel.
 Il utilise les pseudonymes « Bernard Deleuze » et « Paul Gerrard » pour les romans noirs, et « Joël Audrenn » pour les policiers. En 1959 il obtient le Grand prix de littérature policière pour son roman Deuil en rouge. 
-En 1969, l'Amérique le récompense du Grand Prix Edgar-Allan-Poe du meilleur roman policier pour la jeunesse, décerné par les Mystery Writers of America, pour son roman L'Épave de la Bérénice[5].
-Lorsque est publié le roman pour la jeunesse Vacances à scooter en 1952, le livre provoque un petit scandale : les parents s'offusquent de ce que les héros, une fillette de huit ans et son frère adolescent, partent seul faire le tour de plages de France en scooter[6].
+En 1969, l'Amérique le récompense du Grand Prix Edgar-Allan-Poe du meilleur roman policier pour la jeunesse, décerné par les Mystery Writers of America, pour son roman L'Épave de la Bérénice.
+Lorsque est publié le roman pour la jeunesse Vacances à scooter en 1952, le livre provoque un petit scandale : les parents s'offusquent de ce que les héros, une fillette de huit ans et son frère adolescent, partent seul faire le tour de plages de France en scooter.
 À la fin de sa vie, Paul Berna est atteint de cécité. Il meurt en 1994 à l'âge de 83 ans.
-Le Cheval sans tête, son grand succès
-Son livre le plus célèbre, Le Cheval sans tête, roman pour la jeunesse, paraît en 1955 et obtient le Grand prix littérature du salon de l'enfance 1955. Il relate les aventures d'une bande de gamins de rue d'une banlieue populaire fictive, Louvigny-Triage. Le roman paraît en feuilleton dans Spirou, est traduit en plusieurs langues et connaît un grand succès en Grande-Bretagne et aux  États-Unis. En 1963, les studios britanniques Disney adaptèrent le livre en un téléfilm réalisé par Don Chaffey avec un scénario de T. E. B. Clarke sous le nom L'Affaire du cheval sans tête (The Horse without a Head).
 </t>
         </is>
       </c>
@@ -551,10 +563,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le Cheval sans tête, son grand succès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son livre le plus célèbre, Le Cheval sans tête, roman pour la jeunesse, paraît en 1955 et obtient le Grand prix littérature du salon de l'enfance 1955. Il relate les aventures d'une bande de gamins de rue d'une banlieue populaire fictive, Louvigny-Triage. Le roman paraît en feuilleton dans Spirou, est traduit en plusieurs langues et connaît un grand succès en Grande-Bretagne et aux  États-Unis. En 1963, les studios britanniques Disney adaptèrent le livre en un téléfilm réalisé par Don Chaffey avec un scénario de T. E. B. Clarke sous le nom L'Affaire du cheval sans tête (The Horse without a Head).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adaptations pour la jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(par ordre chronologique de parution)
 Le Robinson suisse, G. P., collection Bibliothèque Rouge et Or, 1949
@@ -590,38 +641,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Berna</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ouvrages pour la jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(par date de parution puis ordre alphabétique de titres)
-Écrits sous le nom de Jean Sabran
-Le Livre de Zoupette, G. P., 1949
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(par date de parution puis ordre alphabétique de titres)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écrits sous le nom de Jean Sabran</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Livre de Zoupette, G. P., 1949
 Zoupette à la mer, G.P., 1949
 Les Animaux de la ferme, G.P., Bibliothèque Rouge et bleue, 1949
-Jehanne d'Arc[7], G. P., Bibliothèque de la Bénédictine, 1950
+Jehanne d'Arc, G. P., Bibliothèque de la Bénédictine, 1950
 Les Animaux de la ferme, G.P., Coccinelle, 1950
 Minouche à la montagne, G.P., 1950
 Robin des Bois, G.P., Bibliothèque Rouge et bleue, 1950
@@ -629,9 +717,43 @@
 Minouche à la campagne, G.P., 1951
 Zoupette à la mer, G.P., 1951
 Vacances à scooter, G.P., Bibliothèque Rouge et bleue no 18, 1952
-Zoupette au Maroc, G.P., 1954
-Écrits sous le nom de Paul Berna
-Le Scooter en folie, G.P., coll. Bibliothèque Rouge et bleue, 1954
+Zoupette au Maroc, G.P., 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écrits sous le nom de Paul Berna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Scooter en folie, G.P., coll. Bibliothèque Rouge et bleue, 1954
 Nous irons à Lunaterra, G.P., 1954
 La Porte des étoiles, G.P., coll. Bibliothèque Rouge et Or no 74, 1954
 Le Continent du ciel, G.P., Bibliothèque Rouge et Or no 84, 1955
@@ -651,59 +773,166 @@
 Le Commissaire Sinet et le mystère des poissons rouges, Rouge et Or Souveraine no 261, 1968
 L'Épave de la Bérénice, G.P., Bibliothèque Rouge et Or Souveraine no 277, 1969 (Publié d'abord en Angleterre (The Secret of the missing boat), Prix du meilleur roman étranger aux États-Unis)
 Un pays sans légende, G.P., coll. Olympic, 1969
-Opération oiseau-noir, G.P., Rouge et Or Souveraine no 289, 1970[8]
+Opération oiseau-noir, G.P., Rouge et Or Souveraine no 289, 1970
 Les Vagabonds du Pacifique (Iris and Co, no 1), Alsatia, Safari Signe de Piste - SSDP no 50, 1972, réédition NSDP n° 135, 1987
 La Grande Nuit de Mirabal (Iris and Co, no 2), Alsatia, Safari Signe de Piste - SSDP no 56, 1973
 La Dernière Aube, G.P., coll. Grand angle, 1974
 Rocas d'Esperanza, G.P., coll. Grand angle, 1977
-Millionnaires en herbe, Hachette, coll. Bibliothèque verte, 1977.
-Écrits sous le nom de Joël Audrenn
-La Sardane de minuit, Hachette, coll. Ariane, 1978
+Millionnaires en herbe, Hachette, coll. Bibliothèque verte, 1977.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écrits sous le nom de Joël Audrenn</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Sardane de minuit, Hachette, coll. Ariane, 1978
 L'Embrouille-Cœur, Hachette, coll. Ariane, 1979
-La Dame en rose, Tallandier, coll. Arc-en-ciel, 1979
-Écrits sous le pseudonyme Bernard Deleuze
-(par ordre alphabétique de titres)
+La Dame en rose, Tallandier, coll. Arc-en-ciel, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Écrits sous le pseudonyme Bernard Deleuze</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(par ordre alphabétique de titres)
 La Sierra de l'Indien mort : vagabond des Andes, G.P., coll.Jeunesse-Pocket, 1963, réed. sous le nom de Jean Sabran, Encre, 1984 (Édition originale : Denoël 1952 ; et Éditions G.P. coll. « Super », 1957)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paul_Berna</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ouvrages pour adultes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écrits sous le nom de Jean Sabran
-(par ordre alphabétique de titres, Ref a)
-Anne et la guerre, Albin Michel, 1947[9]
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Écrits sous le nom de Jean Sabran</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(par ordre alphabétique de titres, Ref a)
+Anne et la guerre, Albin Michel, 1947
 Une chance mortelle, Albin Michel, coll. Les Romans d'aventures, 1948 - Réed. Opta 1976 (Paul Gerrard)
 Le Chemin du Canadel, Albin Michel, 1946
 L'Homme au long nez, Denoël (Bernard Deleuze), 1947
 Joan, Gallimard, 1948 (Prix du roman de la ville de Cannes)
 Le Paysage évanoui, Albin Michel, 1947
-Vagabond des Andes, Denoel (Bernard Deleuze), 1952 (Prix des lecteurs de la gazette des Lettres 53) - Rééd.Encre 1984 (Jean Sabran)
-Écrits sous le pseudonyme Paul Gerrard
-(par date de première édition connue, Ref a)
+Vagabond des Andes, Denoel (Bernard Deleuze), 1952 (Prix des lecteurs de la gazette des Lettres 53) - Rééd.Encre 1984 (Jean Sabran)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ouvrages pour adultes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Écrits sous le pseudonyme Paul Gerrard</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(par date de première édition connue, Ref a)
 Deuil en rouge, Grand prix de littérature policière, Presses de la cité, coll. Un mystère no 473, 1959
 Catch-catch party, Presses de la cité, coll. Un mystère no 498, 1960
 La Chasse au Dahu, Presses de la cité, coll. Un mystère no 526, 1960
@@ -724,7 +953,7 @@
 Croque-diamant, Presses de la cité, coll. Un mystère no 767, 1966
 Ilse est morte, Presses de la cité, coll. Espionnage no 42, 1967
 La Porsche jaune, Presses de la cité, coll. policier no 29, 1967
-La Fine Bouteille, Presses de la cité, coll. Mystère no 86, 1968[10]
+La Fine Bouteille, Presses de la cité, coll. Mystère no 86, 1968
 Le Contrat de l'ange-gardien, Presses de la cité, coll. Mystère no 97, 1968 - Rééd. Punch no 114 1973
 Les Incandescentes, Presses de la cité, coll. Mystère no 4, 1968 - Rééd. Punch 1973
 La Cravate en fer, Presses de la cité, coll. Mystère no 61, 1970 - Rééd. Punch no 14 1972
@@ -733,74 +962,113 @@
 Une chance mortelle, Opta, 1976
 Convoi funèbre, Encre, coll. Étiquette noire no 2, 1984
 Note : Tous ces titres parus dans la collection Le Masque de la Librairie des Champs-Élysées sont épuisés.
-Nouvelles sous le nom de Jean Sabran
-Ombre et son reflet, Journal féminin 1948 - Réed. Hard-Boiled Dicks no 12, 1984
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ouvrages pour adultes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles sous le nom de Jean Sabran</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ombre et son reflet, Journal féminin 1948 - Réed. Hard-Boiled Dicks no 12, 1984
 L'Homme au chapeau marron, France-Dimanche, 1950
 Et un peu plus d'une vingtaine parues dans France-soir de 1945 à 1950.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Paul_Berna</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques des romans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1963 : Les Femmes d'abord de Raoul André, d'après Dynamite Girl. Avec Eddie Constantine, Bernadette Lafont, Robert Manuel, Dario Moreno, etc.
 1963-1964 : L'Affaire du cheval sans tête (The Horse Without a Head), téléfilm de Don Chaffey - D'après Le cheval sans tête. Avec Jean-Pierre Aumont, Herbert Lom, etc.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Paul_Berna</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paul_Berna</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Berna</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Prix du roman de la ville de Cannes 1949[11]
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Prix du roman de la ville de Cannes 1949
 Grand prix littérature du salon de l'enfance 1955
-Grand prix de littérature policière 1959 pour Deuil en rouge[12]</t>
+Grand prix de littérature policière 1959 pour Deuil en rouge</t>
         </is>
       </c>
     </row>
